--- a/Unit 1_Excel/sample.xlsx
+++ b/Unit 1_Excel/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARJUNJohri\Documents\GitHub\DataBootcamp_HW\Unit 1_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64A4791-D083-4987-A743-6793CAD18161}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC1B28-84D1-479A-A087-3C667BDE8EC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>asdas</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -345,17 +348,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E5"/>
+  <dimension ref="E5:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
